--- a/hardware/esp-rust-board/placement/esp-rust-board-pnp_lcsc.xlsx
+++ b/hardware/esp-rust-board/placement/esp-rust-board-pnp_lcsc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="145">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -55,274 +55,271 @@
     <t xml:space="preserve">C2</t>
   </si>
   <si>
+    <t xml:space="preserve">150.418800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.747600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.044400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.223600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.807000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.035000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-103.378000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.907000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.589000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.009000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.573000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.716000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.851000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.557000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.097000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-83.312000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.177000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.079200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.624400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.574000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-109.728000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.082000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-116.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.442000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73.834000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.718000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-82.931000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.494000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-113.157000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.765000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.304000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.872000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.018000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-117.348000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.860000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97.536000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-124.764800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.161000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.680000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.892000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-113.665000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.539200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-101.346000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.425400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.495000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-123.952000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-125.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-123.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
     <t xml:space="preserve">151.028400</t>
   </si>
   <si>
-    <t xml:space="preserve">-88.595200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.368000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.044400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.223600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.003000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-106.807000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.035000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-103.378000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144.907000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.589000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-72.009000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.573000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.716000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.851000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.557000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.097000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-83.312000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.177000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.079200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.624400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.574000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-109.728000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.082000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-116.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.442000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-73.834000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.718000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-82.931000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.494000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-113.157000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.765000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.304000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.872000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144.018000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-117.348000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.860000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-97.536000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.984000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.161000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-106.680000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.892000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-113.665000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.539200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-101.346000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.425400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.495000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-123.952000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-123.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.469600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.953600</t>
+    <t xml:space="preserve">-86.309200</t>
   </si>
   <si>
     <t xml:space="preserve">R8</t>
@@ -385,18 +382,24 @@
     <t xml:space="preserve">149.961600</t>
   </si>
   <si>
+    <t xml:space="preserve">-84.226400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.336000</t>
+  </si>
+  <si>
     <t xml:space="preserve">-84.378800</t>
   </si>
   <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.336000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R19</t>
   </si>
   <si>
+    <t xml:space="preserve">150.977600</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1</t>
   </si>
   <si>
@@ -421,10 +424,7 @@
     <t xml:space="preserve">U2</t>
   </si>
   <si>
-    <t xml:space="preserve">148.092000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.034000</t>
+    <t xml:space="preserve">-88.138000</t>
   </si>
   <si>
     <t xml:space="preserve">U3</t>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">-103.886000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-180.000000</t>
   </si>
   <si>
     <t xml:space="preserve">U6</t>
@@ -576,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -659,13 +662,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
@@ -676,30 +679,30 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
@@ -710,30 +713,30 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>8</v>
@@ -744,13 +747,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>8</v>
@@ -761,13 +764,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>8</v>
@@ -778,13 +781,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>8</v>
@@ -795,13 +798,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>8</v>
@@ -812,13 +815,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>8</v>
@@ -829,13 +832,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>8</v>
@@ -846,81 +849,81 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
@@ -931,30 +934,30 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>8</v>
@@ -965,13 +968,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>8</v>
@@ -982,13 +985,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="C24" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
@@ -999,13 +1002,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>8</v>
@@ -1016,132 +1019,132 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="D30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="C32" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
@@ -1169,13 +1172,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
@@ -1186,30 +1189,30 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>8</v>
@@ -1220,13 +1223,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>8</v>
@@ -1237,81 +1240,81 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="C39" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="D42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="C43" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>8</v>
@@ -1322,13 +1325,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
@@ -1339,13 +1342,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -1359,10 +1362,10 @@
         <v>124</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -1373,13 +1376,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -1390,13 +1393,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
@@ -1407,27 +1410,27 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>134</v>
@@ -1436,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1447,7 @@
         <v>135</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>136</v>
@@ -1453,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,41 +1473,41 @@
         <v>8</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
